--- a/src/main/resources/185-RuoYi-Cloud/ruoyi-system_attribute.xlsx
+++ b/src/main/resources/185-RuoYi-Cloud/ruoyi-system_attribute.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2105" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2105" uniqueCount="514">
   <si>
     <t>类名</t>
   </si>
@@ -1272,189 +1272,228 @@
     <t>refreshCache()</t>
   </si>
   <si>
-    <t>export(javax.servlet.http.HttpServletResponse)</t>
+    <t>export(javax.servlet.http.HttpServletResponse,com.ruoyi.system.domain.SysConfig)</t>
+  </si>
+  <si>
+    <t>javax.servlet.http.HttpServletResponse,com.ruoyi.system.domain.SysConfig</t>
+  </si>
+  <si>
+    <t>edit(com.ruoyi.system.domain.SysConfig)</t>
+  </si>
+  <si>
+    <t>remove(java.lang.Long[])</t>
+  </si>
+  <si>
+    <t>getConfigKey(java.lang.String)</t>
+  </si>
+  <si>
+    <t>add(com.ruoyi.system.domain.SysConfig)</t>
+  </si>
+  <si>
+    <t>com.ruoyi.system.controller.SysDictDataController</t>
+  </si>
+  <si>
+    <t>export(javax.servlet.http.HttpServletResponse,com.ruoyi.system.api.domain.SysDictData)</t>
+  </si>
+  <si>
+    <t>javax.servlet.http.HttpServletResponse,com.ruoyi.system.api.domain.SysDictData</t>
+  </si>
+  <si>
+    <t>add(com.ruoyi.system.api.domain.SysDictData)</t>
+  </si>
+  <si>
+    <t>dictType(java.lang.String)</t>
+  </si>
+  <si>
+    <t>edit(com.ruoyi.system.api.domain.SysDictData)</t>
+  </si>
+  <si>
+    <t>list(com.ruoyi.system.api.domain.SysDictData)</t>
+  </si>
+  <si>
+    <t>com.ruoyi.system.controller.SysLogininforController</t>
+  </si>
+  <si>
+    <t>add(com.ruoyi.system.api.domain.SysLogininfor)</t>
+  </si>
+  <si>
+    <t>clean()</t>
+  </si>
+  <si>
+    <t>export(javax.servlet.http.HttpServletResponse,com.ruoyi.system.api.domain.SysLogininfor)</t>
+  </si>
+  <si>
+    <t>javax.servlet.http.HttpServletResponse,com.ruoyi.system.api.domain.SysLogininfor</t>
+  </si>
+  <si>
+    <t>list(com.ruoyi.system.api.domain.SysLogininfor)</t>
+  </si>
+  <si>
+    <t>com.ruoyi.system.controller.SysRoleController</t>
+  </si>
+  <si>
+    <t>dataScope(com.ruoyi.system.api.domain.SysRole)</t>
+  </si>
+  <si>
+    <t>selectAuthUserAll(java.lang.Long,java.lang.Long[])</t>
+  </si>
+  <si>
+    <t>list(com.ruoyi.system.api.domain.SysRole)</t>
+  </si>
+  <si>
+    <t>cancelAuthUser(com.ruoyi.system.domain.SysUserRole)</t>
+  </si>
+  <si>
+    <t>cancelAuthUserAll(java.lang.Long,java.lang.Long[])</t>
+  </si>
+  <si>
+    <t>changeStatus(com.ruoyi.system.api.domain.SysRole)</t>
+  </si>
+  <si>
+    <t>allocatedList(com.ruoyi.system.api.domain.SysUser)</t>
+  </si>
+  <si>
+    <t>edit(com.ruoyi.system.api.domain.SysRole)</t>
+  </si>
+  <si>
+    <t>unallocatedList(com.ruoyi.system.api.domain.SysUser)</t>
+  </si>
+  <si>
+    <t>add(com.ruoyi.system.api.domain.SysRole)</t>
+  </si>
+  <si>
+    <t>export(javax.servlet.http.HttpServletResponse,com.ruoyi.system.api.domain.SysRole)</t>
+  </si>
+  <si>
+    <t>javax.servlet.http.HttpServletResponse,com.ruoyi.system.api.domain.SysRole</t>
+  </si>
+  <si>
+    <t>optionselect()</t>
+  </si>
+  <si>
+    <t>com.ruoyi.system.controller.SysProfileController</t>
+  </si>
+  <si>
+    <t>updateProfile(com.ruoyi.system.api.domain.SysUser)</t>
+  </si>
+  <si>
+    <t>avatar(org.springframework.web.multipart.MultipartFile)</t>
+  </si>
+  <si>
+    <t>org.springframework.web.multipart.MultipartFile</t>
+  </si>
+  <si>
+    <t>profile()</t>
+  </si>
+  <si>
+    <t>updatePwd(java.lang.String,java.lang.String)</t>
+  </si>
+  <si>
+    <t>com.ruoyi.system.controller.SysDeptController</t>
+  </si>
+  <si>
+    <t>roleDeptTreeselect(java.lang.Long)</t>
+  </si>
+  <si>
+    <t>remove(java.lang.Long)</t>
+  </si>
+  <si>
+    <t>add(com.ruoyi.system.api.domain.SysDept)</t>
+  </si>
+  <si>
+    <t>excludeChild(java.lang.Long)</t>
+  </si>
+  <si>
+    <t>treeselect(com.ruoyi.system.api.domain.SysDept)</t>
+  </si>
+  <si>
+    <t>edit(com.ruoyi.system.api.domain.SysDept)</t>
+  </si>
+  <si>
+    <t>list(com.ruoyi.system.api.domain.SysDept)</t>
+  </si>
+  <si>
+    <t>com.ruoyi.system.controller.SysUserOnlineController</t>
+  </si>
+  <si>
+    <t>list(java.lang.String,java.lang.String)</t>
+  </si>
+  <si>
+    <t>forceLogout(java.lang.String)</t>
+  </si>
+  <si>
+    <t>com.ruoyi.system.controller.SysDictTypeController</t>
+  </si>
+  <si>
+    <t>export(javax.servlet.http.HttpServletResponse,com.ruoyi.system.api.domain.SysDictType)</t>
+  </si>
+  <si>
+    <t>javax.servlet.http.HttpServletResponse,com.ruoyi.system.api.domain.SysDictType</t>
+  </si>
+  <si>
+    <t>list(com.ruoyi.system.api.domain.SysDictType)</t>
+  </si>
+  <si>
+    <t>add(com.ruoyi.system.api.domain.SysDictType)</t>
+  </si>
+  <si>
+    <t>edit(com.ruoyi.system.api.domain.SysDictType)</t>
+  </si>
+  <si>
+    <t>com.ruoyi.system.controller.SysPostController</t>
+  </si>
+  <si>
+    <t>edit(com.ruoyi.system.domain.SysPost)</t>
+  </si>
+  <si>
+    <t>list(com.ruoyi.system.domain.SysPost)</t>
+  </si>
+  <si>
+    <t>export(javax.servlet.http.HttpServletResponse,com.ruoyi.system.domain.SysPost)</t>
+  </si>
+  <si>
+    <t>javax.servlet.http.HttpServletResponse,com.ruoyi.system.domain.SysPost</t>
+  </si>
+  <si>
+    <t>add(com.ruoyi.system.domain.SysPost)</t>
+  </si>
+  <si>
+    <t>com.ruoyi.system.controller.SysUserController</t>
+  </si>
+  <si>
+    <t>changeStatus(com.ruoyi.system.api.domain.SysUser)</t>
+  </si>
+  <si>
+    <t>export(javax.servlet.http.HttpServletResponse,com.ruoyi.system.api.domain.SysUser)</t>
+  </si>
+  <si>
+    <t>javax.servlet.http.HttpServletResponse,com.ruoyi.system.api.domain.SysUser</t>
+  </si>
+  <si>
+    <t>edit(com.ruoyi.system.api.domain.SysUser)</t>
+  </si>
+  <si>
+    <t>importData(org.springframework.web.multipart.MultipartFile,java.lang.Boolean)</t>
+  </si>
+  <si>
+    <t>org.springframework.web.multipart.MultipartFile,java.lang.Boolean</t>
+  </si>
+  <si>
+    <t>add(com.ruoyi.system.api.domain.SysUser)</t>
+  </si>
+  <si>
+    <t>authRole(java.lang.Long)</t>
+  </si>
+  <si>
+    <t>getInfo()</t>
+  </si>
+  <si>
+    <t>importTemplate(javax.servlet.http.HttpServletResponse)</t>
   </si>
   <si>
     <t>javax.servlet.http.HttpServletResponse</t>
   </si>
   <si>
-    <t>edit(com.ruoyi.system.domain.SysConfig)</t>
-  </si>
-  <si>
-    <t>remove(java.lang.Long[])</t>
-  </si>
-  <si>
-    <t>getConfigKey(java.lang.String)</t>
-  </si>
-  <si>
-    <t>add(com.ruoyi.system.domain.SysConfig)</t>
-  </si>
-  <si>
-    <t>com.ruoyi.system.controller.SysDictDataController</t>
-  </si>
-  <si>
-    <t>add(com.ruoyi.system.api.domain.SysDictData)</t>
-  </si>
-  <si>
-    <t>dictType(java.lang.String)</t>
-  </si>
-  <si>
-    <t>edit(com.ruoyi.system.api.domain.SysDictData)</t>
-  </si>
-  <si>
-    <t>list(com.ruoyi.system.api.domain.SysDictData)</t>
-  </si>
-  <si>
-    <t>com.ruoyi.system.controller.SysLogininforController</t>
-  </si>
-  <si>
-    <t>add(com.ruoyi.system.api.domain.SysLogininfor)</t>
-  </si>
-  <si>
-    <t>clean()</t>
-  </si>
-  <si>
-    <t>list(com.ruoyi.system.api.domain.SysLogininfor)</t>
-  </si>
-  <si>
-    <t>com.ruoyi.system.controller.SysRoleController</t>
-  </si>
-  <si>
-    <t>dataScope(com.ruoyi.system.api.domain.SysRole)</t>
-  </si>
-  <si>
-    <t>selectAuthUserAll(java.lang.Long,java.lang.Long[])</t>
-  </si>
-  <si>
-    <t>list(com.ruoyi.system.api.domain.SysRole)</t>
-  </si>
-  <si>
-    <t>cancelAuthUser(com.ruoyi.system.domain.SysUserRole)</t>
-  </si>
-  <si>
-    <t>cancelAuthUserAll(java.lang.Long,java.lang.Long[])</t>
-  </si>
-  <si>
-    <t>changeStatus(com.ruoyi.system.api.domain.SysRole)</t>
-  </si>
-  <si>
-    <t>allocatedList(com.ruoyi.system.api.domain.SysUser)</t>
-  </si>
-  <si>
-    <t>edit(com.ruoyi.system.api.domain.SysRole)</t>
-  </si>
-  <si>
-    <t>unallocatedList(com.ruoyi.system.api.domain.SysUser)</t>
-  </si>
-  <si>
-    <t>add(com.ruoyi.system.api.domain.SysRole)</t>
-  </si>
-  <si>
-    <t>optionselect()</t>
-  </si>
-  <si>
-    <t>com.ruoyi.system.controller.SysProfileController</t>
-  </si>
-  <si>
-    <t>updateProfile(com.ruoyi.system.api.domain.SysUser)</t>
-  </si>
-  <si>
-    <t>avatar(org.springframework.web.multipart.MultipartFile)</t>
-  </si>
-  <si>
-    <t>org.springframework.web.multipart.MultipartFile</t>
-  </si>
-  <si>
-    <t>profile()</t>
-  </si>
-  <si>
-    <t>updatePwd(java.lang.String,java.lang.String)</t>
-  </si>
-  <si>
-    <t>com.ruoyi.system.controller.SysDeptController</t>
-  </si>
-  <si>
-    <t>roleDeptTreeselect(java.lang.Long)</t>
-  </si>
-  <si>
-    <t>remove(java.lang.Long)</t>
-  </si>
-  <si>
-    <t>add(com.ruoyi.system.api.domain.SysDept)</t>
-  </si>
-  <si>
-    <t>excludeChild(java.lang.Long)</t>
-  </si>
-  <si>
-    <t>treeselect(com.ruoyi.system.api.domain.SysDept)</t>
-  </si>
-  <si>
-    <t>edit(com.ruoyi.system.api.domain.SysDept)</t>
-  </si>
-  <si>
-    <t>list(com.ruoyi.system.api.domain.SysDept)</t>
-  </si>
-  <si>
-    <t>com.ruoyi.system.controller.SysUserOnlineController</t>
-  </si>
-  <si>
-    <t>list(java.lang.String,java.lang.String)</t>
-  </si>
-  <si>
-    <t>forceLogout(java.lang.String)</t>
-  </si>
-  <si>
-    <t>com.ruoyi.system.controller.SysDictTypeController</t>
-  </si>
-  <si>
-    <t>list(com.ruoyi.system.api.domain.SysDictType)</t>
-  </si>
-  <si>
-    <t>add(com.ruoyi.system.api.domain.SysDictType)</t>
-  </si>
-  <si>
-    <t>edit(com.ruoyi.system.api.domain.SysDictType)</t>
-  </si>
-  <si>
-    <t>com.ruoyi.system.controller.SysPostController</t>
-  </si>
-  <si>
-    <t>edit(com.ruoyi.system.domain.SysPost)</t>
-  </si>
-  <si>
-    <t>list(com.ruoyi.system.domain.SysPost)</t>
-  </si>
-  <si>
-    <t>add(com.ruoyi.system.domain.SysPost)</t>
-  </si>
-  <si>
-    <t>com.ruoyi.system.controller.SysUserController</t>
-  </si>
-  <si>
-    <t>changeStatus(com.ruoyi.system.api.domain.SysUser)</t>
-  </si>
-  <si>
-    <t>edit(com.ruoyi.system.api.domain.SysUser)</t>
-  </si>
-  <si>
-    <t>importData(org.springframework.web.multipart.MultipartFile,java.lang.Boolean)</t>
-  </si>
-  <si>
-    <t>org.springframework.web.multipart.MultipartFile,java.lang.Boolean</t>
-  </si>
-  <si>
-    <t>add(com.ruoyi.system.api.domain.SysUser)</t>
-  </si>
-  <si>
-    <t>authRole(java.lang.Long)</t>
-  </si>
-  <si>
-    <t>getInfo()</t>
-  </si>
-  <si>
-    <t>importTemplate(javax.servlet.http.HttpServletResponse)</t>
-  </si>
-  <si>
     <t>list(com.ruoyi.system.api.domain.SysUser)</t>
   </si>
   <si>
@@ -1507,6 +1546,12 @@
   </si>
   <si>
     <t>list(com.ruoyi.system.api.domain.SysOperLog)</t>
+  </si>
+  <si>
+    <t>export(javax.servlet.http.HttpServletResponse,com.ruoyi.system.api.domain.SysOperLog)</t>
+  </si>
+  <si>
+    <t>javax.servlet.http.HttpServletResponse,com.ruoyi.system.api.domain.SysOperLog</t>
   </si>
   <si>
     <t>add(com.ruoyi.system.api.domain.SysOperLog)</t>
@@ -7256,10 +7301,10 @@
         <v>425</v>
       </c>
       <c r="B11" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="C11" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="D11" t="s">
         <v>414</v>
@@ -7273,7 +7318,7 @@
         <v>425</v>
       </c>
       <c r="B12" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="C12" t="s">
         <v>29</v>
@@ -7290,7 +7335,7 @@
         <v>425</v>
       </c>
       <c r="B13" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C13" t="s">
         <v>11</v>
@@ -7324,7 +7369,7 @@
         <v>425</v>
       </c>
       <c r="B15" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C15" t="s">
         <v>29</v>
@@ -7341,7 +7386,7 @@
         <v>425</v>
       </c>
       <c r="B16" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C16" t="s">
         <v>29</v>
@@ -7355,10 +7400,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B17" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C17" t="s">
         <v>73</v>
@@ -7372,10 +7417,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B18" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="C18" t="s">
         <v>7</v>
@@ -7389,13 +7434,13 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B19" t="s">
-        <v>419</v>
+        <v>435</v>
       </c>
       <c r="C19" t="s">
-        <v>420</v>
+        <v>436</v>
       </c>
       <c r="D19" t="s">
         <v>414</v>
@@ -7406,7 +7451,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B20" t="s">
         <v>422</v>
@@ -7423,10 +7468,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B21" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="C21" t="s">
         <v>73</v>
@@ -7440,10 +7485,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="B22" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="C22" t="s">
         <v>34</v>
@@ -7457,10 +7502,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="B23" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="C23" t="s">
         <v>99</v>
@@ -7474,10 +7519,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="B24" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="C24" t="s">
         <v>34</v>
@@ -7491,7 +7536,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="B25" t="s">
         <v>416</v>
@@ -7508,10 +7553,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="B26" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="C26" t="s">
         <v>25</v>
@@ -7525,10 +7570,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="B27" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="C27" t="s">
         <v>99</v>
@@ -7542,10 +7587,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="B28" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="C28" t="s">
         <v>34</v>
@@ -7559,10 +7604,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="B29" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="C29" t="s">
         <v>14</v>
@@ -7576,7 +7621,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="B30" t="s">
         <v>422</v>
@@ -7593,10 +7638,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="B31" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="C31" t="s">
         <v>34</v>
@@ -7610,10 +7655,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="B32" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="C32" t="s">
         <v>14</v>
@@ -7627,10 +7672,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="B33" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="C33" t="s">
         <v>34</v>
@@ -7644,13 +7689,13 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="B34" t="s">
-        <v>419</v>
+        <v>449</v>
       </c>
       <c r="C34" t="s">
-        <v>420</v>
+        <v>450</v>
       </c>
       <c r="D34" t="s">
         <v>414</v>
@@ -7661,10 +7706,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="B35" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="C35" t="s">
         <v>7</v>
@@ -7678,10 +7723,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="B36" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="C36" t="s">
         <v>14</v>
@@ -7695,13 +7740,13 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="B37" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="C37" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="D37" t="s">
         <v>414</v>
@@ -7712,10 +7757,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="B38" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="C38" t="s">
         <v>7</v>
@@ -7729,10 +7774,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="B39" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="C39" t="s">
         <v>44</v>
@@ -7746,10 +7791,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="B40" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="C40" t="s">
         <v>23</v>
@@ -7763,10 +7808,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="B41" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="C41" t="s">
         <v>23</v>
@@ -7780,7 +7825,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="B42" t="s">
         <v>416</v>
@@ -7797,10 +7842,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="B43" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="C43" t="s">
         <v>134</v>
@@ -7814,10 +7859,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="B44" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="C44" t="s">
         <v>23</v>
@@ -7831,10 +7876,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="B45" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="C45" t="s">
         <v>134</v>
@@ -7848,10 +7893,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="B46" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="C46" t="s">
         <v>134</v>
@@ -7865,10 +7910,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="B47" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="C47" t="s">
         <v>134</v>
@@ -7882,10 +7927,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="B48" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="C48" t="s">
         <v>44</v>
@@ -7899,10 +7944,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="B49" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="C49" t="s">
         <v>11</v>
@@ -7916,13 +7961,13 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="B50" t="s">
-        <v>419</v>
+        <v>470</v>
       </c>
       <c r="C50" t="s">
-        <v>420</v>
+        <v>471</v>
       </c>
       <c r="D50" t="s">
         <v>414</v>
@@ -7933,7 +7978,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="B51" t="s">
         <v>416</v>
@@ -7950,7 +7995,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="B52" t="s">
         <v>418</v>
@@ -7967,10 +8012,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="B53" t="s">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="C53" t="s">
         <v>83</v>
@@ -7984,7 +8029,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="B54" t="s">
         <v>422</v>
@@ -8001,10 +8046,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="B55" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="C55" t="s">
         <v>83</v>
@@ -8018,10 +8063,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="B56" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="C56" t="s">
         <v>7</v>
@@ -8035,10 +8080,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="B57" t="s">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="C57" t="s">
         <v>83</v>
@@ -8052,10 +8097,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="B58" t="s">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="C58" t="s">
         <v>30</v>
@@ -8069,10 +8114,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="B59" t="s">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="C59" t="s">
         <v>30</v>
@@ -8086,7 +8131,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="B60" t="s">
         <v>416</v>
@@ -8103,7 +8148,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="B61" t="s">
         <v>422</v>
@@ -8120,13 +8165,13 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="B62" t="s">
-        <v>419</v>
+        <v>478</v>
       </c>
       <c r="C62" t="s">
-        <v>420</v>
+        <v>479</v>
       </c>
       <c r="D62" t="s">
         <v>414</v>
@@ -8137,10 +8182,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="B63" t="s">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="C63" t="s">
         <v>30</v>
@@ -8154,10 +8199,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="B64" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="C64" t="s">
         <v>7</v>
@@ -8171,10 +8216,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="B65" t="s">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="C65" t="s">
         <v>14</v>
@@ -8188,13 +8233,13 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="B66" t="s">
-        <v>419</v>
+        <v>483</v>
       </c>
       <c r="C66" t="s">
-        <v>420</v>
+        <v>484</v>
       </c>
       <c r="D66" t="s">
         <v>414</v>
@@ -8205,7 +8250,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="B67" t="s">
         <v>416</v>
@@ -8222,10 +8267,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="B68" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
       <c r="C68" t="s">
         <v>14</v>
@@ -8239,13 +8284,13 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="B69" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
       <c r="C69" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
       <c r="D69" t="s">
         <v>414</v>
@@ -8256,10 +8301,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="B70" t="s">
-        <v>476</v>
+        <v>488</v>
       </c>
       <c r="C70" t="s">
         <v>14</v>
@@ -8273,10 +8318,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="B71" t="s">
-        <v>477</v>
+        <v>489</v>
       </c>
       <c r="C71" t="s">
         <v>23</v>
@@ -8290,10 +8335,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="B72" t="s">
-        <v>478</v>
+        <v>490</v>
       </c>
       <c r="C72" t="s">
         <v>7</v>
@@ -8307,7 +8352,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="B73" t="s">
         <v>422</v>
@@ -8324,7 +8369,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="B74" t="s">
         <v>233</v>
@@ -8341,13 +8386,13 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="B75" t="s">
-        <v>479</v>
+        <v>491</v>
       </c>
       <c r="C75" t="s">
-        <v>420</v>
+        <v>492</v>
       </c>
       <c r="D75" t="s">
         <v>414</v>
@@ -8358,10 +8403,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="B76" t="s">
-        <v>480</v>
+        <v>493</v>
       </c>
       <c r="C76" t="s">
         <v>14</v>
@@ -8375,10 +8420,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="B77" t="s">
-        <v>481</v>
+        <v>494</v>
       </c>
       <c r="C77" t="s">
         <v>11</v>
@@ -8387,15 +8432,15 @@
         <v>414</v>
       </c>
       <c r="E77" t="s">
-        <v>482</v>
+        <v>495</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="B78" t="s">
-        <v>483</v>
+        <v>496</v>
       </c>
       <c r="C78" t="s">
         <v>14</v>
@@ -8404,15 +8449,15 @@
         <v>414</v>
       </c>
       <c r="E78" t="s">
-        <v>482</v>
+        <v>495</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="B79" t="s">
-        <v>484</v>
+        <v>497</v>
       </c>
       <c r="C79" t="s">
         <v>99</v>
@@ -8426,7 +8471,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>485</v>
+        <v>498</v>
       </c>
       <c r="B80" t="s">
         <v>416</v>
@@ -8443,10 +8488,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>485</v>
+        <v>498</v>
       </c>
       <c r="B81" t="s">
-        <v>486</v>
+        <v>499</v>
       </c>
       <c r="C81" t="s">
         <v>119</v>
@@ -8460,10 +8505,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>485</v>
+        <v>498</v>
       </c>
       <c r="B82" t="s">
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="C82" t="s">
         <v>119</v>
@@ -8477,7 +8522,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>485</v>
+        <v>498</v>
       </c>
       <c r="B83" t="s">
         <v>422</v>
@@ -8494,10 +8539,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>485</v>
+        <v>498</v>
       </c>
       <c r="B84" t="s">
-        <v>488</v>
+        <v>501</v>
       </c>
       <c r="C84" t="s">
         <v>119</v>
@@ -8511,10 +8556,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>489</v>
+        <v>502</v>
       </c>
       <c r="B85" t="s">
-        <v>490</v>
+        <v>503</v>
       </c>
       <c r="C85" t="s">
         <v>24</v>
@@ -8528,10 +8573,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>489</v>
+        <v>502</v>
       </c>
       <c r="B86" t="s">
-        <v>491</v>
+        <v>504</v>
       </c>
       <c r="C86" t="s">
         <v>23</v>
@@ -8545,10 +8590,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>489</v>
+        <v>502</v>
       </c>
       <c r="B87" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="C87" t="s">
         <v>23</v>
@@ -8562,7 +8607,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>489</v>
+        <v>502</v>
       </c>
       <c r="B88" t="s">
         <v>416</v>
@@ -8579,10 +8624,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>489</v>
+        <v>502</v>
       </c>
       <c r="B89" t="s">
-        <v>492</v>
+        <v>505</v>
       </c>
       <c r="C89" t="s">
         <v>24</v>
@@ -8596,10 +8641,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>489</v>
+        <v>502</v>
       </c>
       <c r="B90" t="s">
-        <v>493</v>
+        <v>506</v>
       </c>
       <c r="C90" t="s">
         <v>24</v>
@@ -8613,10 +8658,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>489</v>
+        <v>502</v>
       </c>
       <c r="B91" t="s">
-        <v>494</v>
+        <v>507</v>
       </c>
       <c r="C91" t="s">
         <v>24</v>
@@ -8630,10 +8675,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>489</v>
+        <v>502</v>
       </c>
       <c r="B92" t="s">
-        <v>495</v>
+        <v>508</v>
       </c>
       <c r="C92" t="s">
         <v>7</v>
@@ -8647,10 +8692,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>496</v>
+        <v>509</v>
       </c>
       <c r="B93" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="C93" t="s">
         <v>7</v>
@@ -8664,10 +8709,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>496</v>
+        <v>509</v>
       </c>
       <c r="B94" t="s">
-        <v>497</v>
+        <v>510</v>
       </c>
       <c r="C94" t="s">
         <v>38</v>
@@ -8681,7 +8726,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>496</v>
+        <v>509</v>
       </c>
       <c r="B95" t="s">
         <v>422</v>
@@ -8698,13 +8743,13 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>496</v>
+        <v>509</v>
       </c>
       <c r="B96" t="s">
-        <v>419</v>
+        <v>511</v>
       </c>
       <c r="C96" t="s">
-        <v>420</v>
+        <v>512</v>
       </c>
       <c r="D96" t="s">
         <v>414</v>
@@ -8715,10 +8760,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>496</v>
+        <v>509</v>
       </c>
       <c r="B97" t="s">
-        <v>498</v>
+        <v>513</v>
       </c>
       <c r="C97" t="s">
         <v>38</v>
